--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\KLSH_Sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732AF549-B6D5-4820-BF68-3E17F16D0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72115F5D-520E-4EAA-A0BF-74AD589FDF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,22 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Пупа</t>
+    <t>Артём</t>
   </si>
   <si>
-    <t>Лупа</t>
+    <t>НТН</t>
+  </si>
+  <si>
+    <t>maydurov2004@yandex.ru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -63,13 +74,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -348,29 +362,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>3</v>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{E62263A4-8E44-4920-BFE2-C0592417591E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\KLSH_Sender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72115F5D-520E-4EAA-A0BF-74AD589FDF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C1BD73-0825-4303-AAD8-B04E7181F122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
